--- a/Assets/DataSheet/Data_Shop.xlsx
+++ b/Assets/DataSheet/Data_Shop.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\3D Portfolio\Assets\DataSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\3D-Portfolio\Assets\DataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21345" windowHeight="10215"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +136,13 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="4">
@@ -202,7 +209,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -231,6 +238,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -516,7 +526,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -545,8 +555,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
-        <v>1</v>
+      <c r="A2" s="10">
+        <v>1000</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>7</v>
@@ -562,8 +572,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <v>2</v>
+      <c r="A3" s="10">
+        <v>2000</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>8</v>
@@ -579,8 +589,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>3</v>
+      <c r="A4" s="10">
+        <v>3000</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>9</v>
@@ -596,8 +606,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>4</v>
+      <c r="A5" s="10">
+        <v>4000</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>10</v>
@@ -613,8 +623,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>5</v>
+      <c r="A6" s="10">
+        <v>5000</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>11</v>
@@ -630,8 +640,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>6</v>
+      <c r="A7" s="10">
+        <v>6000</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>12</v>
@@ -647,8 +657,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>7</v>
+      <c r="A8" s="10">
+        <v>7000</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>13</v>
@@ -664,8 +674,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>8</v>
+      <c r="A9" s="10">
+        <v>8000</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>14</v>
@@ -682,7 +692,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
-        <v>1001</v>
+        <v>10000</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>15</v>
@@ -699,7 +709,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
-        <v>1002</v>
+        <v>10001</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>16</v>
@@ -716,7 +726,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
-        <v>1003</v>
+        <v>10002</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>17</v>
@@ -733,7 +743,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
-        <v>1004</v>
+        <v>10003</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>18</v>
@@ -750,7 +760,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
-        <v>1005</v>
+        <v>10004</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>19</v>
